--- a/Tools/Luban/DataTables/Datas/J_技能.xlsx
+++ b/Tools/Luban/DataTables/Datas/J_技能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_Game_Data\Unity\2025TTGJ\Tools\Luban\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwencheng/UnityProject/2025TTGJ/Tools/Luban/DataTables/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6328919-5BA5-468D-B2F5-EC1CFFACE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C924512-6A38-5046-9AAF-0CF98AB3DB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8750" yWindow="2600" windowWidth="28670" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="28680" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>##备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>唯一id</t>
@@ -69,9 +65,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2#4</t>
-  </si>
-  <si>
     <t>剧情表id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -192,9 +185,6 @@
     <t>用连环巴掌拍打对手进行攻击。连续攻击２～５次</t>
   </si>
   <si>
-    <t>2#5</t>
-  </si>
-  <si>
     <t>连续拳</t>
   </si>
   <si>
@@ -211,9 +201,6 @@
   </si>
   <si>
     <t>快速对对手进行攻击，并抽取1张牌</t>
-  </si>
-  <si>
-    <t>1#1</t>
   </si>
   <si>
     <t>守住</t>
@@ -257,10 +244,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>最小伤害次数#最大伤害次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>增加一次性血量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -275,17 +258,32 @@
   <si>
     <t>增加行动点</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小伤害次数#最大伤害次数</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -293,7 +291,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -301,7 +299,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,7 +308,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,7 +317,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,16 +325,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,9 +514,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,246 +798,249 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="1"/>
     <col min="2" max="11" width="13.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.1640625" style="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16" width="12.1640625" style="1"/>
+    <col min="17" max="17" width="33.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="O4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <v>1001</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1045,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10">
@@ -1054,8 +1065,8 @@
       <c r="K5" s="10">
         <v>15</v>
       </c>
-      <c r="L5" s="10">
-        <v>1</v>
+      <c r="L5" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1064,12 +1075,12 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>1002</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -1085,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10">
@@ -1094,8 +1105,8 @@
       <c r="K6" s="10">
         <v>20</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>50</v>
+      <c r="L6" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1104,13 +1115,13 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="10">
         <v>1003</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
@@ -1126,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10">
@@ -1135,8 +1146,8 @@
       <c r="K7" s="10">
         <v>15</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>10</v>
+      <c r="L7" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1145,13 +1156,13 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="10">
         <v>1004</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10">
         <v>2</v>
@@ -1167,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10">
@@ -1176,8 +1187,8 @@
       <c r="K8" s="10">
         <v>80</v>
       </c>
-      <c r="L8" s="10">
-        <v>1</v>
+      <c r="L8" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1186,13 +1197,13 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="10">
         <v>1005</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1208,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10">
@@ -1217,25 +1228,25 @@
       <c r="K9" s="10">
         <v>12</v>
       </c>
-      <c r="L9" s="10">
-        <v>1</v>
+      <c r="L9" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="10" t="s">
-        <v>57</v>
+      <c r="Q9" s="10">
+        <v>1</v>
       </c>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="10">
         <v>1006</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10">
         <v>3</v>
@@ -1251,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10">
@@ -1268,13 +1279,13 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="10">
         <v>1007</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -1290,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10">
@@ -1307,13 +1318,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="10">
         <v>1008</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10">
         <v>4</v>
@@ -1329,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I12" s="10">
         <v>1</v>
@@ -1346,13 +1357,13 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="10">
         <v>1009</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="10">
         <v>4</v>
@@ -1368,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I13" s="10">
         <v>1.5</v>
@@ -1385,40 +1396,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1431,7 +1409,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1444,7 +1422,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1457,7 +1435,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1470,7 +1448,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1483,7 +1461,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1496,7 +1474,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1509,1101 +1487,1101 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="7"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="7"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="7"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="7"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="7"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="7"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="7"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="7"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="7"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="7"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="7"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="7"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="7"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="7"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="7"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="7"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="7"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="7"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="7"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="7"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="7"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="7"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="7"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="7"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="7"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="7"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="7"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="7"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="7"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="7"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="7"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="7"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="7"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="7"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="7"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="7"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="7"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="7"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="7"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="7"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="7"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="7"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="7"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="7"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="7"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="7"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="7"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="7"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="7"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="7"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="7"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="7"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="7"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="7"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="7"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="7"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="7"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="7"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="7"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="7"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="7"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="7"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="7"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="7"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="7"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="7"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="7"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="7"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="7"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="7"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="7"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="7"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="7"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="7"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="7"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="7"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="7"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="7"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="7"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="7"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="7"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="7"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="7"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="7"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="7"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="7"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="7"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="7"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="7"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="7"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="7"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="7"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="7"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="7"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="7"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="7"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="7"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="7"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="7"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="7"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="7"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="7"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="7"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="7"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="7"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="7"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="7"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="7"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="7"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="7"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="7"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="7"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="7"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="7"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="7"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="7"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="7"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="7"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="7"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
